--- a/jacobi/src/test/resources/jacobi/test/data/GivensRQTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/GivensRQTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="-60" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="1995" yWindow="465" windowWidth="27795" windowHeight="12525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1646,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -3304,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3313,1201 +3313,1201 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*10-3</f>
-        <v>-1.7481402548558507</v>
+        <v>0.96604508866320504</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:L16" ca="1" si="0">RAND()*10-3</f>
-        <v>3.716149051498796</v>
+        <v>2.5826539989608683</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8410578480272761</v>
+        <v>5.1843373692317698</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5530933149950101</v>
+        <v>4.4528403917526811</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0516921204662459</v>
+        <v>1.3571130633788009</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5530664158805347</v>
+        <v>3.0706269526216072</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6368251410600969</v>
+        <v>0.26665757978117899</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0397197840438199</v>
+        <v>0.3574143563756822</v>
       </c>
       <c r="I1">
         <f ca="1">RAND()*10-3</f>
-        <v>-1.5951230368892428</v>
+        <v>-0.86111088616510578</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.968012871867332</v>
+        <v>4.0950104550274524</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7073291079685056</v>
+        <v>0.892548146552961</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0435573166853063</v>
+        <v>-1.170909378239567</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:L24" ca="1" si="1">RAND()*10-3</f>
-        <v>2.7457439980182592</v>
+        <v>-1.3405772714015036</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8921567853387158</v>
+        <v>4.566197930831974</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.847977244723694</v>
+        <v>9.6628089884470025E-2</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2500873885857402</v>
+        <v>0.55914542355516428</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.97087132332481652</v>
+        <v>-2.5589506547548506</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3933581904395353</v>
+        <v>0.56626489563220161</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12747678101378179</v>
+        <v>3.2983033411507341</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3256683784338215</v>
+        <v>2.4422702542035228</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.66907867078235572</v>
+        <v>1.9842278214923752</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3837249508273659</v>
+        <v>3.3807218949154096</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4846532836348816</v>
+        <v>3.7170331671708228</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8685328368393535</v>
+        <v>-1.9225308890276167</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3307814962948488</v>
+        <v>-0.22055365061360366</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3105953460669943</v>
+        <v>2.283112746610291</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4072035227028081</v>
+        <v>3.814515688388509</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1215445995236299</v>
+        <v>3.0100346196163255</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.75962581942837382</v>
+        <v>4.7813956948573839</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3268535650398912</v>
+        <v>-2.2542421596676361</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9945774708527857</v>
+        <v>0.45241143292453234</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1352301047353759</v>
+        <v>3.045171961616199</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.638626145766156</v>
+        <v>0.98915804604059865</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.96330758530714</v>
+        <v>6.8809409151768683</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.834117117181127</v>
+        <v>-6.6608619385564616E-2</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1913360788528458</v>
+        <v>5.8870562590853588</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4210346802257217</v>
+        <v>-2.635782629889782</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9546162777046092</v>
+        <v>-1.5025379884389041</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7077605578938346</v>
+        <v>1.4707828582443154</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7516425493995897</v>
+        <v>-1.3993528856935984</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5012990630870791</v>
+        <v>-1.736715650548571</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5171128241918685</v>
+        <v>0.94002816815186652</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2362116495791433</v>
+        <v>-1.3035049674370509</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4441826900460661</v>
+        <v>1.7150340613904094</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4612049462522565</v>
+        <v>6.6560674593314761</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8172349275317359</v>
+        <v>-7.7562889663325585E-2</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8223063262781309</v>
+        <v>-0.62293197188540361</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4842678310246145</v>
+        <v>-2.0664403643998681</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2222608466592089</v>
+        <v>-2.0810929528329423</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9461324989439248</v>
+        <v>3.8397623208660026</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6989351838834139</v>
+        <v>0.17128138488679268</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1897700860576208</v>
+        <v>5.6357704168398186</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92569131433306984</v>
+        <v>4.2971094447302445</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11089373928695867</v>
+        <v>-2.5777593078151502</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69142913626870062</v>
+        <v>-2.0066450483960026</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34211539052423534</v>
+        <v>0.93018063612651325</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.43697368841465067</v>
+        <v>6.516929932283368</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1731681987250742</v>
+        <v>5.384711834178324</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0733159609087206</v>
+        <v>4.4930040641749933</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98618254262815075</v>
+        <v>3.8586479210603226</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3158324540088051</v>
+        <v>1.5380350204493123</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0223428889268167</v>
+        <v>-1.1397891073724105</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9197976307455056</v>
+        <v>1.0774597729251809</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4158810696887789</v>
+        <v>6.1193798251469733</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7476789226043405</v>
+        <v>2.6380048429555405</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7582894923001566</v>
+        <v>6.0098466003034297</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.8057948852856418</v>
+        <v>-1.4664389523114369</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.67132860514387</v>
+        <v>4.7965612887671938</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5766235270115594</v>
+        <v>0.65072723120812537</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2220919651397426</v>
+        <v>5.5555853089507359</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35407403354404998</v>
+        <v>3.4609484015314678</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1481865597525145</v>
+        <v>-2.3575816370549116</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9590440097384452</v>
+        <v>2.7560473195213993</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4595637274368913</v>
+        <v>0.96915537611591374</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1050306603290587</v>
+        <v>2.7894785039508569</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5271170235496441</v>
+        <v>-0.62385694837550343</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6692210838710571</v>
+        <v>-0.42285636994747566</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9556109546404059</v>
+        <v>0.19810538381721887</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8333884614133247</v>
+        <v>-2.3094168746849473</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2305205351752386</v>
+        <v>0.10700142760496067</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5195394185917628</v>
+        <v>3.9684904667227423</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0311942547512984</v>
+        <v>1.6110245129685463</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.156121038433497</v>
+        <v>6.7527908090977835</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0464576482084391</v>
+        <v>1.6389558028210516</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24382810809157984</v>
+        <v>2.7885402004602451</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1886359469867163</v>
+        <v>-1.32366383930499</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5471919425291061</v>
+        <v>3.2593383013130879</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6159901835658714</v>
+        <v>2.8786779860342939</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9610609671874304</v>
+        <v>4.0356689222435209</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91550330112064415</v>
+        <v>-0.60491798085203285</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9954566814127759</v>
+        <v>-2.159078297190316</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2917056932539515</v>
+        <v>4.9174847318991333</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0937895895287255</v>
+        <v>-2.4890433194116985</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7926824347113399</v>
+        <v>5.4813396711801268</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6924526561922084</v>
+        <v>1.2229620141058808</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3833972372347247</v>
+        <v>4.9249665697532077</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6288482641347151</v>
+        <v>4.7717943512369834</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4838054809286625</v>
+        <v>3.7242385400503979</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0169843820016098</v>
+        <v>-0.81643132268381091</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4204487712217606</v>
+        <v>-2.3210399526150844</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.99872109952712407</v>
+        <v>4.7718843413150571</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14705103875913572</v>
+        <v>0.71217763976979809</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61019951122413252</v>
+        <v>2.6340996951303488</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.598797286681279</v>
+        <v>6.5381210528893199</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1142514878075973</v>
+        <v>6.5250554766763802</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.966164811651248</v>
+        <v>9.2595667770752232E-2</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1757017963552698</v>
+        <v>-0.57385395392851102</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4881084909899744</v>
+        <v>-1.0653153722787274</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.44562117932286682</v>
+        <v>0.99241211797453843</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9047439835056856</v>
+        <v>-0.88365160826494549</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2002249731057986</v>
+        <v>3.7950439556254114</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8996390252910427</v>
+        <v>3.4706249758314138</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9687512409306223</v>
+        <v>-1.1833870063764047</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25032742813102438</v>
+        <v>1.1655900162177915</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9599702381347015E-2</v>
+        <v>-1.7875790177745516</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1069785621209638</v>
+        <v>2.3074330687043254</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9261482324052572</v>
+        <v>3.886895692251862</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8173969328388424</v>
+        <v>-0.62097439912806207</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8659871669474231</v>
+        <v>5.9942408970606831</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.056886492004228</v>
+        <v>-4.4134014543923517E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>2.171075815336085</v>
+        <v>6.663847120860888</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3884670924153513</v>
+        <v>2.2272996715582165</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8262819592845929</v>
+        <v>0.9277474674114945</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0932187943728895</v>
+        <v>6.6907377454004777</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5898617602647285</v>
+        <v>1.5230738033193205</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9155238110868114</v>
+        <v>-0.14559632359453101</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.528451999908377</v>
+        <v>1.0055941207631998</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1470696126058151</v>
+        <v>5.5207747733421737</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28946201368155755</v>
+        <v>5.3867500654927554</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2186010262067555</v>
+        <v>-2.0462326656125978</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4957402902503221</v>
+        <v>4.295045139134797</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7376016790152917</v>
+        <v>-2.3513623871333595</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.330626252957912</v>
+        <v>4.9874040665221102</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2851011239675321</v>
+        <v>3.1591550798010424</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3186331006300769</v>
+        <v>2.2853531365124615</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6771320302387398</v>
+        <v>-0.50474142963575641</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1148092577866624</v>
+        <v>-2.7696361358379589</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.663274529095057</v>
+        <v>-0.66345137476274418</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5491939627162221</v>
+        <v>0.94840734593729481</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.43587958736558896</v>
+        <v>2.6483581776892136</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6046742024510774</v>
+        <v>5.2052454067767844</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3222054687374509</v>
+        <v>3.5053901358638742</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0491516669220573</v>
+        <v>-0.43224431184067003</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8050277357860596</v>
+        <v>2.9147498706318959</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.78049214357245855</v>
+        <v>0.38197866720543416</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9097709975478541</v>
+        <v>6.7675823161232582</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9356961177836727</v>
+        <v>5.1677920489166453</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36300790253884152</v>
+        <v>1.856725527286395</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4200233302025627</v>
+        <v>0.79054374358682633</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7406268107136196</v>
+        <v>3.3940076937423775</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2274965565543958</v>
+        <v>6.5877339105293178</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0664490812547993</v>
+        <v>1.4163329095572212</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8700852999775721</v>
+        <v>3.4417029954450769</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2657593022495819</v>
+        <v>4.2851687296703451</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8337458732588967</v>
+        <v>2.7934354139516966</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3227377703020515</v>
+        <v>5.8656018475055944</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28900807656270366</v>
+        <v>0.68824558254468915</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2063839633335922</v>
+        <v>3.2762697899392688</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.86910798576044</v>
+        <v>-2.518886466746598</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9861287199832018</v>
+        <v>-2.8569261755169535</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4455682196035955</v>
+        <v>-1.2031098601393426</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4773076463022594</v>
+        <v>-0.95485833227696837</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2474690090057772</v>
+        <v>0.88714421927160769</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28950432532633119</v>
+        <v>2.7108136435449897</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6370062171809696</v>
+        <v>5.2603897121620413</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2442019548880525</v>
+        <v>1.2203003331923501</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.553169955841569</v>
+        <v>-1.494541726708752</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93469735107467766</v>
+        <v>5.8276655960087727</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5972563215575892</v>
+        <v>4.9754685524982154</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69845995183620158</v>
+        <v>4.6662033365409075</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92513238356405214</v>
+        <v>1.3628031141618493</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8752602551678645</v>
+        <v>3.5393141039983416</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7675574470625488</v>
+        <v>4.9789761943567781</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0357336864721223</v>
+        <v>5.0548801264906285</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6655307922669031</v>
+        <v>2.3178114195756896</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4323512878897997</v>
+        <v>1.5595494819027031</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3921408280752285</v>
+        <v>2.5581271368331642</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2886940893628687</v>
+        <v>4.9152134162838461</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7027763264223201</v>
+        <v>0.83924542809225722</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6995075119437999</v>
+        <v>1.5077922892572637</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8256354518531825</v>
+        <v>1.475742294044073</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2242933919319059</v>
+        <v>1.85750201833575</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5260979646560884</v>
+        <v>-2.9189686825101751</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.559862111186721</v>
+        <v>2.702578421907126</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.71674250054222188</v>
+        <v>6.9403477044679729</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6713546056738897</v>
+        <v>5.934912936700222</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0809423147750756</v>
+        <v>-0.9670317481129258</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3641770916997835</v>
+        <v>0.21549418223629235</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80945293041563193</v>
+        <v>5.7130650729908616</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.60798231386839863</v>
+        <v>3.4806383489004045</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5551812416334254</v>
+        <v>5.8908853744843732</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13371577200004392</v>
+        <v>5.0755040234533286</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1241909783814281</v>
+        <v>-0.54487434584835714</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.828055911366536</v>
+        <v>4.9615511188292656</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4250137070269737</v>
+        <v>1.7967106382210165</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7481116915094983</v>
+        <v>1.0426036743359397</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79465557504817941</v>
+        <v>0.93593687866357511</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4730944808604014</v>
+        <v>6.811398786668132</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5585784642570417</v>
+        <v>6.8341920861791543</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54637490020077495</v>
+        <v>-0.92728842090449914</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.378196710828143</v>
+        <v>-2.778117683582904</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7806746208806263</v>
+        <v>0.83992578537093676</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7137964449322194</v>
+        <v>2.3202489598535996</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9019967723107545</v>
+        <v>-0.36843800269168092</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4298627524283116</v>
+        <v>1.0910480227785655</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7826590656019672</v>
+        <v>-1.9815174843170897</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.18621280883776192</v>
+        <v>0.41216921158904096</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9715452982973041</v>
+        <v>-2.5199562253529244</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8988143794705397</v>
+        <v>2.1522301861836208</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94713138850247258</v>
+        <v>1.735392166991125</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0436978435828677</v>
+        <v>2.1312207391092581</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46327628931999509</v>
+        <v>3.0626686541205119</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10366011755742655</v>
+        <v>6.5276128767071171</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4861771222519469</v>
+        <v>3.9260540980682483</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.38208194603413</v>
+        <v>2.972664745513323</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1415923952073999</v>
+        <v>-1.5807855102980757</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3173184028660785</v>
+        <v>4.348710325514479</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8647554884674546</v>
+        <v>1.7336040450978079</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7479487448211444</v>
+        <v>1.2518935394104265</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2928438914087508</v>
+        <v>2.0040963116345498</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1914310217237514</v>
+        <v>-1.9227819717654022</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5036054140517123</v>
+        <v>2.3681486374095497</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.751148110253494</v>
+        <v>3.088340962606928</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.902140322309954E-3</v>
+        <v>2.773157764985962</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1973979791257889</v>
+        <v>4.8809186507519744</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.377735882988647</v>
+        <v>3.6082870130910276</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8731395566833484</v>
+        <v>6.765309093128657</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.5742409754784159</v>
+        <v>6.463473497218903</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.3119932593389123E-2</v>
+        <v>-1.0539755671034063</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0572878469356137</v>
+        <v>-2.9936421867581093</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57723476361682469</v>
+        <v>-2.5712796058122906</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8469144516382627</v>
+        <v>5.9942061979056813</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.85254350495050435</v>
+        <v>1.9432643953860609</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2036339464792682</v>
+        <v>1.8183336451098153</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9570851127826776</v>
+        <v>3.45412100499576</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8528572517410096</v>
+        <v>0.38629639731189647</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1136681071587784</v>
+        <v>-2.95022313896893</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.697748389756387</v>
+        <v>5.9064748392975037</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3381041645292653</v>
+        <v>4.8252945370045035</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8698461537097497</v>
+        <v>4.2877303191149432</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5000605190008836</v>
+        <v>4.7980961057794556</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0302562231969743</v>
+        <v>5.0381154095296239</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2566299639464056</v>
+        <v>-2.664642978757608</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4256170845968292</v>
+        <v>6.8355565836615675</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4296895485333536</v>
+        <v>3.3052481183038296</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8056582325556381</v>
+        <v>2.8380112455040569</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2337067954028553</v>
+        <v>3.7658950773858617</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3036232047090284</v>
+        <v>-1.5235788896917786</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2145279979900687</v>
+        <v>-1.6157781588071081</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4469107076765759</v>
+        <v>2.4738257563159944</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1628169748286008</v>
+        <v>-2.9493261686432977</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2104416751712765</v>
+        <v>-2.6172477581788951</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2268435222771847</v>
+        <v>0.11843554821332747</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0525982740377833</v>
+        <v>3.5056149331393032</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0355755640620421</v>
+        <v>2.5940541606427612</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5012905848328959</v>
+        <v>0.22483547165738038</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3427127399230026</v>
+        <v>6.5966559975597328</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5157287900362473</v>
+        <v>6.1172705619053325</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9645442796737651</v>
+        <v>1.2946255450750428</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8080978146853239</v>
+        <v>1.4840325175873037</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.950148139314539</v>
+        <v>1.6107878057051463</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2437988906944923</v>
+        <v>-0.95912500774949105</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.59140026268794399</v>
+        <v>1.0057631477614333</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.67941053615047853</v>
+        <v>-0.98834702853178147</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2491377168372502</v>
+        <v>-1.2142629557324842</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1681115054717353</v>
+        <v>1.8708779792474219</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2746044467833242</v>
+        <v>-2.4760235593011757</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4927642786590809</v>
+        <v>6.4449721290966231</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6074219588031817</v>
+        <v>1.9992763204730659</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4137604572294968E-2</v>
+        <v>2.3468400421896671</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8719097834122049</v>
+        <v>6.9235291576464029</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3313464877531391</v>
+        <v>0.11518029641385308</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68050974921316243</v>
+        <v>0.29014073998779821</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8510574800235728</v>
+        <v>-2.9674570936567255</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.570689896318882</v>
+        <v>2.0996007405363786</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31946723033096136</v>
+        <v>1.3077219246376997</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5264402691952434</v>
+        <v>-2.1123608703267625</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0750890139089329</v>
+        <v>1.916172450187509</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9698445209327691</v>
+        <v>2.0066555563040058</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3998448347467809</v>
+        <v>-0.42920305172864914</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0594019150114597E-2</v>
+        <v>2.5342063002368374</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0276348736249696</v>
+        <v>-2.0371086313519386</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6519828076587517</v>
+        <v>3.864877052775384E-3</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.125474994332647</v>
+        <v>7.3436036015548822E-2</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9760075210838464</v>
+        <v>2.9961005755732373</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0049731656933769</v>
+        <v>4.0326726041561862</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0852386878905245</v>
+        <v>0.42842859381518039</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96611305563553618</v>
+        <v>4.209959178230311</v>
       </c>
     </row>
   </sheetData>
